--- a/data_in/bridges/Countries_1.to.Countries_2.EU1.xlsx
+++ b/data_in/bridges/Countries_1.to.Countries_2.EU1.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul.Malliet\Documents\GitHub\CCS_Project\data\correspondences\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Documents/Professionnel/Github/EmissionsIndicators/data_in/bridges/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44F852B-1ACC-8945-9785-5F298B53CB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="3" r:id="rId1"/>
     <sheet name="Documentation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -23,6 +24,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -33,154 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="179">
-  <si>
-    <t>'AT'</t>
-  </si>
-  <si>
-    <t>'BE'</t>
-  </si>
-  <si>
-    <t>'BG'</t>
-  </si>
-  <si>
-    <t>'CY'</t>
-  </si>
-  <si>
-    <t>'CZ'</t>
-  </si>
-  <si>
-    <t>'DE'</t>
-  </si>
-  <si>
-    <t>'DK'</t>
-  </si>
-  <si>
-    <t>'EE'</t>
-  </si>
-  <si>
-    <t>'ES'</t>
-  </si>
-  <si>
-    <t>'FI'</t>
-  </si>
-  <si>
-    <t>'FR'</t>
-  </si>
-  <si>
-    <t>'GR'</t>
-  </si>
-  <si>
-    <t>'HR'</t>
-  </si>
-  <si>
-    <t>'HU'</t>
-  </si>
-  <si>
-    <t>'IE'</t>
-  </si>
-  <si>
-    <t>'IT'</t>
-  </si>
-  <si>
-    <t>'LT'</t>
-  </si>
-  <si>
-    <t>'LU'</t>
-  </si>
-  <si>
-    <t>'LV'</t>
-  </si>
-  <si>
-    <t>'MT'</t>
-  </si>
-  <si>
-    <t>'NL'</t>
-  </si>
-  <si>
-    <t>'PL'</t>
-  </si>
-  <si>
-    <t>'PT'</t>
-  </si>
-  <si>
-    <t>'RO'</t>
-  </si>
-  <si>
-    <t>'SE'</t>
-  </si>
-  <si>
-    <t>'SI'</t>
-  </si>
-  <si>
-    <t>'SK'</t>
-  </si>
-  <si>
-    <t>'GB'</t>
-  </si>
-  <si>
-    <t>'US'</t>
-  </si>
-  <si>
-    <t>'JP'</t>
-  </si>
-  <si>
-    <t>'CN'</t>
-  </si>
-  <si>
-    <t>'CA'</t>
-  </si>
-  <si>
-    <t>'KR'</t>
-  </si>
-  <si>
-    <t>'BR'</t>
-  </si>
-  <si>
-    <t>'IN'</t>
-  </si>
-  <si>
-    <t>'MX'</t>
-  </si>
-  <si>
-    <t>'RU'</t>
-  </si>
-  <si>
-    <t>'AU'</t>
-  </si>
-  <si>
-    <t>'CH'</t>
-  </si>
-  <si>
-    <t>'TR'</t>
-  </si>
-  <si>
-    <t>'TW'</t>
-  </si>
-  <si>
-    <t>'NO'</t>
-  </si>
-  <si>
-    <t>'ID'</t>
-  </si>
-  <si>
-    <t>'ZA'</t>
-  </si>
-  <si>
-    <t>'WA'</t>
-  </si>
-  <si>
-    <t>'WL'</t>
-  </si>
-  <si>
-    <t>'WE'</t>
-  </si>
-  <si>
-    <t>'WF'</t>
-  </si>
-  <si>
-    <t>'WM'</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="111">
   <si>
     <t>Austria</t>
   </si>
@@ -512,71 +371,14 @@
     <t>EU emissions origins (&lt;5% are gathered in "autres")</t>
   </si>
   <si>
-    <t>Autriche</t>
-  </si>
-  <si>
-    <t>Bulgarie</t>
-  </si>
-  <si>
-    <t>Chypre</t>
-  </si>
-  <si>
-    <t>République Tchèque</t>
-  </si>
-  <si>
-    <t>Danemark</t>
-  </si>
-  <si>
-    <t>Estonie</t>
-  </si>
-  <si>
-    <t>Finlande</t>
-  </si>
-  <si>
-    <t>Grèce</t>
-  </si>
-  <si>
-    <t>Croatie</t>
-  </si>
-  <si>
-    <t>Hongrie</t>
-  </si>
-  <si>
-    <t>Irlande</t>
-  </si>
-  <si>
-    <t>Lituanie</t>
-  </si>
-  <si>
-    <t>Lettonnie</t>
-  </si>
-  <si>
-    <t>Malte</t>
-  </si>
-  <si>
-    <t>Pays-bas</t>
-  </si>
-  <si>
-    <t>Pologne</t>
-  </si>
-  <si>
-    <t>Roumanie</t>
-  </si>
-  <si>
-    <t>Suède</t>
-  </si>
-  <si>
-    <t>Slovénie</t>
-  </si>
-  <si>
-    <t>Slovaquie</t>
+    <t>RW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -629,13 +431,6 @@
       <color rgb="FF000000"/>
       <name val="Garamond"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -731,7 +526,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -742,9 +537,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -762,15 +554,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1068,178 +857,178 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GU33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="73" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="134" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="19" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="134" width="9.5" bestFit="1" customWidth="1"/>
     <col min="135" max="135" width="11" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="137" max="195" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="197" max="200" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="137" max="195" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="197" max="200" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:203" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:203" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>48</v>
+      <c r="B1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX1" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="AY1" s="4"/>
       <c r="AZ1" s="4"/>
@@ -1393,9 +1182,9 @@
       <c r="GR1" s="4"/>
       <c r="GS1" s="4"/>
     </row>
-    <row r="2" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>159</v>
+    <row r="2" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1700,9 +1489,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>152</v>
+    <row r="3" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -2007,9 +1796,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>160</v>
+    <row r="4" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -2314,9 +2103,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>161</v>
+    <row r="5" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -2621,9 +2410,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>162</v>
+    <row r="6" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -2928,9 +2717,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>153</v>
+    <row r="7" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -3235,9 +3024,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>163</v>
+    <row r="8" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -3542,9 +3331,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>164</v>
+    <row r="9" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -3849,9 +3638,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>154</v>
+    <row r="10" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -4156,9 +3945,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>165</v>
+    <row r="11" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -4463,9 +4252,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>70</v>
+    <row r="12" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -4498,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
@@ -4767,12 +4556,12 @@
       <c r="GS12" s="2"/>
       <c r="GU12" s="1">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>166</v>
+    <row r="13" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -5077,9 +4866,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>167</v>
+    <row r="14" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -5384,9 +5173,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>168</v>
+    <row r="15" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -5691,9 +5480,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>169</v>
+    <row r="16" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -5998,9 +5787,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>155</v>
+    <row r="17" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -6305,9 +6094,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>170</v>
+    <row r="18" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -6612,9 +6401,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>86</v>
+    <row r="19" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -6919,9 +6708,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>171</v>
+    <row r="20" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -7226,9 +7015,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>172</v>
+    <row r="21" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -7533,9 +7322,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>173</v>
+    <row r="22" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -7840,9 +7629,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>174</v>
+    <row r="23" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -8147,9 +7936,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>90</v>
+    <row r="24" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -8454,9 +8243,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>175</v>
+    <row r="25" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
@@ -8761,9 +8550,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>176</v>
+    <row r="26" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -9068,9 +8857,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>177</v>
+    <row r="27" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
@@ -9375,9 +9164,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>178</v>
+    <row r="28" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -9682,9 +9471,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>157</v>
+    <row r="29" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -9771,67 +9560,67 @@
         <v>1</v>
       </c>
       <c r="AD29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY29" s="2"/>
       <c r="AZ29" s="2"/>
@@ -9986,10 +9775,10 @@
       <c r="GS29" s="2"/>
       <c r="GU29" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -10196,7 +9985,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -10403,7 +10192,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -10610,7 +10399,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -10834,745 +10623,745 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2:A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.42578125" customWidth="1"/>
+    <col min="1" max="1" width="71.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>98</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>49</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="C2" t="str">
         <f>C$1&amp;A2&amp;C$1&amp;","</f>
         <v>"AT",</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>152</v>
+      <c r="D2" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="G2" t="str">
         <f>C$1&amp;D2&amp;C$1&amp;","</f>
         <v>"Belgique",</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>52</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C50" si="0">C$1&amp;A3&amp;C$1&amp;","</f>
         <v>"BE",</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>153</v>
+      <c r="D3" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G9" si="1">C$1&amp;D3&amp;C$1&amp;","</f>
         <v>"Allemagne",</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>55</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
         <v>"BG",</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>154</v>
+      <c r="D4" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="1"/>
         <v>"Espagne",</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>58</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
         <v>"CY",</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>70</v>
+      <c r="D5" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="1"/>
         <v>"France",</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>61</v>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
         <v>"CZ",</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>155</v>
+      <c r="D6" s="13" t="s">
+        <v>106</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="1"/>
         <v>"Italie",</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>72</v>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
         <v>"DE",</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>156</v>
+      <c r="D7" s="13" t="s">
+        <v>107</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
         <v>"Pays-Bas",</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>64</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
         <v>"DK",</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>157</v>
+      <c r="D8" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
         <v>"Royaume-Uni",</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>66</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
         <v>"EE",</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>151</v>
+      <c r="D9" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
         <v>"Autres",</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>94</v>
+    <row r="10" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
         <v>"ES",</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>68</v>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
         <v>"FI",</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>70</v>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
         <v>"FR",</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>74</v>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
         <v>"GR",</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>97</v>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
         <v>"HR",</v>
       </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>76</v>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
         <v>"HU",</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>78</v>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
         <v>"IE",</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>80</v>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
         <v>"IT",</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>84</v>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
         <v>"LT",</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>86</v>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
         <v>"LU",</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>82</v>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
         <v>"LV",</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>87</v>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
         <v>"MT",</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>88</v>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
         <v>"NL",</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>89</v>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
         <v>"PL",</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>90</v>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
         <v>"PT",</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>91</v>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
         <v>"RO",</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>95</v>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
         <v>"SE",</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>93</v>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
         <v>"SI",</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>92</v>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
         <v>"SK",</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>96</v>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
         <v>"GB",</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>85</v>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
         <v>"US",</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>67</v>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
         <v>"JP",</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>56</v>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
         <v>"CN",</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>59</v>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
         <v>"CA",</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>77</v>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
         <v>"KR",</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>53</v>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
         <v>"BR",</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>62</v>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
         <v>"IN",</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>69</v>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
         <v>"MX",</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>73</v>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
         <v>"RU",</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>50</v>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
         <v>"AU",</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>79</v>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
         <v>"CH",</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>83</v>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
         <v>"TR",</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>81</v>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
         <v>"TW",</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>71</v>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
         <v>"NO",</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>65</v>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
         <v>"ID",</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>75</v>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
         <v>"ZA",</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>51</v>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>2</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
         <v>"WA",</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>54</v>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
         <v>"WL",</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>60</v>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="0"/>
         <v>"WE",</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>57</v>
+    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
         <v>"WF",</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>63</v>
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
         <v>"WM",</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_in/bridges/Countries_1.to.Countries_2.EU1.xlsx
+++ b/data_in/bridges/Countries_1.to.Countries_2.EU1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Documents/Professionnel/Github/EmissionsIndicators/data_in/bridges/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44F852B-1ACC-8945-9785-5F298B53CB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059F0EEB-D6B2-0A41-88D3-A0A7DAD58988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-5420" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="112">
   <si>
     <t>Austria</t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>RW</t>
+  </si>
+  <si>
+    <t>c('Agriculture and fishing','sagr'),</t>
   </si>
 </sst>
 </file>
@@ -860,7 +863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GU33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="73" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="73" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -10624,19 +10627,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A50"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71.5" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>50</v>
       </c>
@@ -10650,7 +10654,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>53</v>
       </c>
@@ -10658,8 +10662,8 @@
         <v>0</v>
       </c>
       <c r="C2" t="str">
-        <f>C$1&amp;A2&amp;C$1&amp;","</f>
-        <v>"AT",</v>
+        <f>C$1&amp;A2&amp;C$1</f>
+        <v>"AT"</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>103</v>
@@ -10668,8 +10672,15 @@
         <f>C$1&amp;D2&amp;C$1&amp;","</f>
         <v>"Belgique",</v>
       </c>
+      <c r="I2" t="str">
+        <f>"c("&amp;$C$1&amp;B2&amp;$C$1&amp;", "&amp;C2&amp;"),"</f>
+        <v>c("Austria", "AT"),</v>
+      </c>
+      <c r="J2" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>54</v>
       </c>
@@ -10677,8 +10688,8 @@
         <v>3</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C50" si="0">C$1&amp;A3&amp;C$1&amp;","</f>
-        <v>"BE",</v>
+        <f t="shared" ref="C3:C50" si="0">C$1&amp;A3&amp;C$1</f>
+        <v>"BE"</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>104</v>
@@ -10687,8 +10698,12 @@
         <f t="shared" ref="G3:G9" si="1">C$1&amp;D3&amp;C$1&amp;","</f>
         <v>"Allemagne",</v>
       </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I50" si="2">"c("&amp;$C$1&amp;B3&amp;$C$1&amp;", "&amp;C3&amp;"),"</f>
+        <v>c("Belgium", "BE"),</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>55</v>
       </c>
@@ -10697,7 +10712,7 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>"BG",</v>
+        <v>"BG"</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>105</v>
@@ -10706,8 +10721,12 @@
         <f t="shared" si="1"/>
         <v>"Espagne",</v>
       </c>
+      <c r="I4" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Bulgaria", "BG"),</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>56</v>
       </c>
@@ -10716,7 +10735,7 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>"CY",</v>
+        <v>"CY"</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>21</v>
@@ -10725,8 +10744,12 @@
         <f t="shared" si="1"/>
         <v>"France",</v>
       </c>
+      <c r="I5" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Cyprus", "CY"),</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>57</v>
       </c>
@@ -10735,7 +10758,7 @@
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>"CZ",</v>
+        <v>"CZ"</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>106</v>
@@ -10744,8 +10767,12 @@
         <f t="shared" si="1"/>
         <v>"Italie",</v>
       </c>
+      <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Czech Republic", "CZ"),</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>58</v>
       </c>
@@ -10754,7 +10781,7 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>"DE",</v>
+        <v>"DE"</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>107</v>
@@ -10763,8 +10790,12 @@
         <f t="shared" si="1"/>
         <v>"Pays-Bas",</v>
       </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Germany", "DE"),</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>59</v>
       </c>
@@ -10773,7 +10804,7 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>"DK",</v>
+        <v>"DK"</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>108</v>
@@ -10782,8 +10813,12 @@
         <f t="shared" si="1"/>
         <v>"Royaume-Uni",</v>
       </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Denmark", "DK"),</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>60</v>
       </c>
@@ -10792,7 +10827,7 @@
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
-        <v>"EE",</v>
+        <v>"EE"</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>102</v>
@@ -10801,8 +10836,12 @@
         <f t="shared" si="1"/>
         <v>"Autres",</v>
       </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Estonia", "EE"),</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>61</v>
       </c>
@@ -10811,11 +10850,15 @@
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
-        <v>"ES",</v>
+        <v>"ES"</v>
       </c>
       <c r="D10" s="11"/>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Spain", "ES"),</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>62</v>
       </c>
@@ -10824,10 +10867,14 @@
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
-        <v>"FI",</v>
+        <v>"FI"</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Finland", "FI"),</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>63</v>
       </c>
@@ -10836,10 +10883,14 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
-        <v>"FR",</v>
+        <v>"FR"</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v>c("France", "FR"),</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>64</v>
       </c>
@@ -10848,10 +10899,14 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>"GR",</v>
+        <v>"GR"</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Greece", "GR"),</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>65</v>
       </c>
@@ -10860,13 +10915,17 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>"HR",</v>
+        <v>"HR"</v>
       </c>
       <c r="D14" t="s">
         <v>109</v>
       </c>
+      <c r="I14" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Croatia", "HR"),</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>66</v>
       </c>
@@ -10875,10 +10934,14 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>"HU",</v>
+        <v>"HU"</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Hungary", "HU"),</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>67</v>
       </c>
@@ -10887,10 +10950,14 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>"IE",</v>
+        <v>"IE"</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Ireland", "IE"),</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>68</v>
       </c>
@@ -10899,10 +10966,14 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>"IT",</v>
+        <v>"IT"</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Italy", "IT"),</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>69</v>
       </c>
@@ -10911,10 +10982,14 @@
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
-        <v>"LT",</v>
+        <v>"LT"</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Lithuania", "LT"),</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>70</v>
       </c>
@@ -10923,10 +10998,14 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
-        <v>"LU",</v>
+        <v>"LU"</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Luxembourg", "LU"),</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>71</v>
       </c>
@@ -10935,10 +11014,14 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
-        <v>"LV",</v>
+        <v>"LV"</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Latvia", "LV"),</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>72</v>
       </c>
@@ -10947,10 +11030,14 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
-        <v>"MT",</v>
+        <v>"MT"</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Malta", "MT"),</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>73</v>
       </c>
@@ -10959,10 +11046,14 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
-        <v>"NL",</v>
+        <v>"NL"</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Netherlands", "NL"),</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>74</v>
       </c>
@@ -10971,10 +11062,14 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
-        <v>"PL",</v>
+        <v>"PL"</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Poland", "PL"),</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>75</v>
       </c>
@@ -10983,10 +11078,14 @@
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
-        <v>"PT",</v>
+        <v>"PT"</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Portugal", "PT"),</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>76</v>
       </c>
@@ -10995,10 +11094,14 @@
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
-        <v>"RO",</v>
+        <v>"RO"</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Romania", "RO"),</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>77</v>
       </c>
@@ -11007,10 +11110,14 @@
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
-        <v>"SE",</v>
+        <v>"SE"</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Sweden", "SE"),</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>78</v>
       </c>
@@ -11019,10 +11126,14 @@
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
-        <v>"SI",</v>
+        <v>"SI"</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Slovenia", "SI"),</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>79</v>
       </c>
@@ -11031,10 +11142,14 @@
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
-        <v>"SK",</v>
+        <v>"SK"</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Slovakia", "SK"),</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>80</v>
       </c>
@@ -11043,10 +11158,14 @@
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
-        <v>"GB",</v>
+        <v>"GB"</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="2"/>
+        <v>c("United Kingdom", "GB"),</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>81</v>
       </c>
@@ -11055,10 +11174,14 @@
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
-        <v>"US",</v>
+        <v>"US"</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="2"/>
+        <v>c("United States", "US"),</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>82</v>
       </c>
@@ -11067,10 +11190,14 @@
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
-        <v>"JP",</v>
+        <v>"JP"</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Japan", "JP"),</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>83</v>
       </c>
@@ -11079,10 +11206,14 @@
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
-        <v>"CN",</v>
+        <v>"CN"</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="2"/>
+        <v>c("China", "CN"),</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>84</v>
       </c>
@@ -11091,10 +11222,14 @@
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
-        <v>"CA",</v>
+        <v>"CA"</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Canada", "CA"),</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>85</v>
       </c>
@@ -11103,10 +11238,14 @@
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
-        <v>"KR",</v>
+        <v>"KR"</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="2"/>
+        <v>c("South Korea", "KR"),</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>86</v>
       </c>
@@ -11115,10 +11254,14 @@
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
-        <v>"BR",</v>
+        <v>"BR"</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Brazil", "BR"),</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>87</v>
       </c>
@@ -11127,10 +11270,14 @@
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
-        <v>"IN",</v>
+        <v>"IN"</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="2"/>
+        <v>c("India", "IN"),</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>88</v>
       </c>
@@ -11139,10 +11286,14 @@
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
-        <v>"MX",</v>
+        <v>"MX"</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Mexico", "MX"),</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>89</v>
       </c>
@@ -11151,10 +11302,14 @@
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
-        <v>"RU",</v>
+        <v>"RU"</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Russia", "RU"),</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>90</v>
       </c>
@@ -11163,10 +11318,14 @@
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
-        <v>"AU",</v>
+        <v>"AU"</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Australia", "AU"),</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>91</v>
       </c>
@@ -11175,10 +11334,14 @@
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
-        <v>"CH",</v>
+        <v>"CH"</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Switzerland", "CH"),</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>92</v>
       </c>
@@ -11187,10 +11350,14 @@
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
-        <v>"TR",</v>
+        <v>"TR"</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Turkey", "TR"),</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>93</v>
       </c>
@@ -11199,10 +11366,14 @@
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
-        <v>"TW",</v>
+        <v>"TW"</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Taiwan", "TW"),</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>94</v>
       </c>
@@ -11211,10 +11382,14 @@
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
-        <v>"NO",</v>
+        <v>"NO"</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Norway", "NO"),</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>95</v>
       </c>
@@ -11223,10 +11398,14 @@
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
-        <v>"ID",</v>
+        <v>"ID"</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="2"/>
+        <v>c("Indonesia", "ID"),</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>96</v>
       </c>
@@ -11235,10 +11414,14 @@
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
-        <v>"ZA",</v>
+        <v>"ZA"</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="2"/>
+        <v>c("South Africa", "ZA"),</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>97</v>
       </c>
@@ -11247,10 +11430,14 @@
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
-        <v>"WA",</v>
+        <v>"WA"</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="2"/>
+        <v>c("RoW Africa", "WA"),</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>98</v>
       </c>
@@ -11259,10 +11446,14 @@
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
-        <v>"WL",</v>
+        <v>"WL"</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="2"/>
+        <v>c("RoW America", "WL"),</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>99</v>
       </c>
@@ -11271,10 +11462,14 @@
       </c>
       <c r="C48" t="str">
         <f t="shared" si="0"/>
-        <v>"WE",</v>
+        <v>"WE"</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="2"/>
+        <v>c("RoW Europe", "WE"),</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>100</v>
       </c>
@@ -11283,10 +11478,14 @@
       </c>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
-        <v>"WF",</v>
+        <v>"WF"</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="2"/>
+        <v>c("RoW Asia and Pacific", "WF"),</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>101</v>
       </c>
@@ -11295,70 +11494,74 @@
       </c>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
-        <v>"WM",</v>
+        <v>"WM"</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="2"/>
+        <v>c("RoW Middle East", "WM"),</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
